--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107844</v>
+        <v>108583.8495670803</v>
       </c>
       <c r="C2">
-        <v>204402</v>
+        <v>205066.9665438474</v>
       </c>
       <c r="D2">
-        <v>276716</v>
+        <v>277911.0873348299</v>
       </c>
       <c r="E2">
-        <v>307840</v>
+        <v>308393.1483967978</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>132055</v>
+        <v>132876.1585994226</v>
       </c>
       <c r="C3">
-        <v>245016</v>
+        <v>246370.0193413306</v>
       </c>
       <c r="D3">
-        <v>327320</v>
+        <v>328452.0744311343</v>
       </c>
       <c r="E3">
-        <v>364818</v>
+        <v>366456.3985561453</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>133431</v>
+        <v>133634.9505275033</v>
       </c>
       <c r="C4">
-        <v>247044</v>
+        <v>247400.1052496259</v>
       </c>
       <c r="D4">
-        <v>327297</v>
+        <v>328278.8617218114</v>
       </c>
       <c r="E4">
-        <v>364854</v>
+        <v>365745.4199824685</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>106421</v>
+        <v>106739.5658413006</v>
       </c>
       <c r="C5">
-        <v>182412</v>
+        <v>183311.0458486494</v>
       </c>
       <c r="D5">
-        <v>230552</v>
+        <v>231308.2449269884</v>
       </c>
       <c r="E5">
-        <v>256770</v>
+        <v>257445.9193610857</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>92235</v>
+        <v>92647.04710965729</v>
       </c>
       <c r="C6">
-        <v>160017</v>
+        <v>160531.8596209518</v>
       </c>
       <c r="D6">
-        <v>204204</v>
+        <v>204808.9336099969</v>
       </c>
       <c r="E6">
-        <v>224786</v>
+        <v>225230.0381233434</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10680</v>
+        <v>10709.48881235689</v>
       </c>
       <c r="C7">
-        <v>17595</v>
+        <v>17651.95417435372</v>
       </c>
       <c r="D7">
-        <v>22050</v>
+        <v>22079.74300045208</v>
       </c>
       <c r="E7">
-        <v>23850</v>
+        <v>23931.72673235543</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>235378</v>
+        <v>235112.6018616934</v>
       </c>
       <c r="C8">
-        <v>595752</v>
+        <v>595185.6476458332</v>
       </c>
       <c r="D8">
-        <v>919291</v>
+        <v>917489.4878413631</v>
       </c>
       <c r="E8">
-        <v>1178536</v>
+        <v>1179526.881208779</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>124630</v>
+        <v>124963.2271275988</v>
       </c>
       <c r="C9">
-        <v>219627</v>
+        <v>220551.0157355429</v>
       </c>
       <c r="D9">
-        <v>286340</v>
+        <v>287666.5132491607</v>
       </c>
       <c r="E9">
-        <v>318573</v>
+        <v>320143.9981619639</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>59247</v>
+        <v>59458.05984564151</v>
       </c>
       <c r="C10">
-        <v>99244</v>
+        <v>99557.7727890665</v>
       </c>
       <c r="D10">
-        <v>127107</v>
+        <v>127372.6658213741</v>
       </c>
       <c r="E10">
-        <v>136482</v>
+        <v>136703.24863412</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10928</v>
+        <v>10986.64449520764</v>
       </c>
       <c r="C11">
-        <v>17340</v>
+        <v>17410.58527303607</v>
       </c>
       <c r="D11">
-        <v>21930</v>
+        <v>21997.24369316641</v>
       </c>
       <c r="E11">
-        <v>25424</v>
+        <v>25471.83091001473</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27300</v>
+        <v>27332.21405171468</v>
       </c>
       <c r="C12">
-        <v>46760</v>
+        <v>46896.137523741</v>
       </c>
       <c r="D12">
-        <v>58680</v>
+        <v>58868.79312375189</v>
       </c>
       <c r="E12">
-        <v>62049</v>
+        <v>62167.7280236506</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>33320</v>
+        <v>33402.24755887037</v>
       </c>
       <c r="C13">
-        <v>55296</v>
+        <v>55469.11180329873</v>
       </c>
       <c r="D13">
-        <v>71491</v>
+        <v>71653.07652741244</v>
       </c>
       <c r="E13">
-        <v>77616</v>
+        <v>77810.16062207166</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto.xlsx
@@ -391,13 +391,13 @@
         <v>108583.8495670803</v>
       </c>
       <c r="C2">
-        <v>205066.9665438474</v>
+        <v>205066.9665438475</v>
       </c>
       <c r="D2">
-        <v>277911.0873348299</v>
+        <v>277911.0873348298</v>
       </c>
       <c r="E2">
-        <v>308393.1483967978</v>
+        <v>308393.1483967977</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>132876.1585994226</v>
+        <v>132876.1585994225</v>
       </c>
       <c r="C3">
-        <v>246370.0193413306</v>
+        <v>246370.0193413305</v>
       </c>
       <c r="D3">
-        <v>328452.0744311343</v>
+        <v>328452.0744311345</v>
       </c>
       <c r="E3">
-        <v>366456.3985561453</v>
+        <v>366456.3985561455</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>133634.9505275033</v>
+        <v>133634.9505275032</v>
       </c>
       <c r="C4">
-        <v>247400.1052496259</v>
+        <v>247400.1052496261</v>
       </c>
       <c r="D4">
-        <v>328278.8617218114</v>
+        <v>328278.8617218115</v>
       </c>
       <c r="E4">
         <v>365745.4199824685</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>106739.5658413006</v>
+        <v>106739.5658413007</v>
       </c>
       <c r="C5">
-        <v>183311.0458486494</v>
+        <v>183311.0458486495</v>
       </c>
       <c r="D5">
-        <v>231308.2449269884</v>
+        <v>231308.2449269885</v>
       </c>
       <c r="E5">
         <v>257445.9193610857</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>92647.04710965729</v>
+        <v>92647.04710965733</v>
       </c>
       <c r="C6">
         <v>160531.8596209518</v>
       </c>
       <c r="D6">
-        <v>204808.9336099969</v>
+        <v>204808.9336099967</v>
       </c>
       <c r="E6">
-        <v>225230.0381233434</v>
+        <v>225230.0381233435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>235112.6018616934</v>
+        <v>235112.601861693</v>
       </c>
       <c r="C8">
-        <v>595185.6476458332</v>
+        <v>595185.6476458331</v>
       </c>
       <c r="D8">
-        <v>917489.4878413631</v>
+        <v>917489.4878413632</v>
       </c>
       <c r="E8">
         <v>1179526.881208779</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>124963.2271275988</v>
+        <v>124963.2271275989</v>
       </c>
       <c r="C9">
-        <v>220551.0157355429</v>
+        <v>220551.0157355431</v>
       </c>
       <c r="D9">
-        <v>287666.5132491607</v>
+        <v>287666.5132491608</v>
       </c>
       <c r="E9">
-        <v>320143.9981619639</v>
+        <v>320143.9981619641</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>59458.05984564151</v>
+        <v>59458.05984564154</v>
       </c>
       <c r="C10">
-        <v>99557.7727890665</v>
+        <v>99557.77278906645</v>
       </c>
       <c r="D10">
         <v>127372.6658213741</v>
@@ -544,13 +544,13 @@
         <v>10986.64449520764</v>
       </c>
       <c r="C11">
-        <v>17410.58527303607</v>
+        <v>17410.58527303608</v>
       </c>
       <c r="D11">
-        <v>21997.24369316641</v>
+        <v>21997.24369316642</v>
       </c>
       <c r="E11">
-        <v>25471.83091001473</v>
+        <v>25471.83091001472</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27332.21405171468</v>
+        <v>27332.21405171467</v>
       </c>
       <c r="C12">
-        <v>46896.137523741</v>
+        <v>46896.13752374099</v>
       </c>
       <c r="D12">
-        <v>58868.79312375189</v>
+        <v>58868.7931237519</v>
       </c>
       <c r="E12">
-        <v>62167.7280236506</v>
+        <v>62167.72802365059</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,13 +578,13 @@
         <v>33402.24755887037</v>
       </c>
       <c r="C13">
-        <v>55469.11180329873</v>
+        <v>55469.1118032987</v>
       </c>
       <c r="D13">
-        <v>71653.07652741244</v>
+        <v>71653.07652741246</v>
       </c>
       <c r="E13">
-        <v>77810.16062207166</v>
+        <v>77810.16062207165</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>108583.8495670803</v>
+        <v>108584</v>
       </c>
       <c r="C2">
-        <v>205066.9665438475</v>
+        <v>205067</v>
       </c>
       <c r="D2">
-        <v>277911.0873348298</v>
+        <v>277911</v>
       </c>
       <c r="E2">
-        <v>308393.1483967977</v>
+        <v>308393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>132876.1585994225</v>
+        <v>132876</v>
       </c>
       <c r="C3">
-        <v>246370.0193413305</v>
+        <v>246370</v>
       </c>
       <c r="D3">
-        <v>328452.0744311345</v>
+        <v>328452</v>
       </c>
       <c r="E3">
-        <v>366456.3985561455</v>
+        <v>366456</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>133634.9505275032</v>
+        <v>133635</v>
       </c>
       <c r="C4">
-        <v>247400.1052496261</v>
+        <v>247400</v>
       </c>
       <c r="D4">
-        <v>328278.8617218115</v>
+        <v>328279</v>
       </c>
       <c r="E4">
-        <v>365745.4199824685</v>
+        <v>365745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>106739.5658413007</v>
+        <v>106740</v>
       </c>
       <c r="C5">
-        <v>183311.0458486495</v>
+        <v>183311</v>
       </c>
       <c r="D5">
-        <v>231308.2449269885</v>
+        <v>231308</v>
       </c>
       <c r="E5">
-        <v>257445.9193610857</v>
+        <v>257446</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>92647.04710965733</v>
+        <v>92647</v>
       </c>
       <c r="C6">
-        <v>160531.8596209518</v>
+        <v>160532</v>
       </c>
       <c r="D6">
-        <v>204808.9336099967</v>
+        <v>204809</v>
       </c>
       <c r="E6">
-        <v>225230.0381233435</v>
+        <v>225230</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10709.48881235689</v>
+        <v>10709</v>
       </c>
       <c r="C7">
-        <v>17651.95417435372</v>
+        <v>17652</v>
       </c>
       <c r="D7">
-        <v>22079.74300045208</v>
+        <v>22080</v>
       </c>
       <c r="E7">
-        <v>23931.72673235543</v>
+        <v>23932</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>235112.601861693</v>
+        <v>235113</v>
       </c>
       <c r="C8">
-        <v>595185.6476458331</v>
+        <v>595186</v>
       </c>
       <c r="D8">
-        <v>917489.4878413632</v>
+        <v>917489</v>
       </c>
       <c r="E8">
-        <v>1179526.881208779</v>
+        <v>1179527</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>124963.2271275989</v>
+        <v>124963</v>
       </c>
       <c r="C9">
-        <v>220551.0157355431</v>
+        <v>220551</v>
       </c>
       <c r="D9">
-        <v>287666.5132491608</v>
+        <v>287667</v>
       </c>
       <c r="E9">
-        <v>320143.9981619641</v>
+        <v>320144</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>59458.05984564154</v>
+        <v>59458</v>
       </c>
       <c r="C10">
-        <v>99557.77278906645</v>
+        <v>99558</v>
       </c>
       <c r="D10">
-        <v>127372.6658213741</v>
+        <v>127373</v>
       </c>
       <c r="E10">
-        <v>136703.24863412</v>
+        <v>136703</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10986.64449520764</v>
+        <v>10987</v>
       </c>
       <c r="C11">
-        <v>17410.58527303608</v>
+        <v>17411</v>
       </c>
       <c r="D11">
-        <v>21997.24369316642</v>
+        <v>21997</v>
       </c>
       <c r="E11">
-        <v>25471.83091001472</v>
+        <v>25472</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27332.21405171467</v>
+        <v>27332</v>
       </c>
       <c r="C12">
-        <v>46896.13752374099</v>
+        <v>46896</v>
       </c>
       <c r="D12">
-        <v>58868.7931237519</v>
+        <v>58869</v>
       </c>
       <c r="E12">
-        <v>62167.72802365059</v>
+        <v>62168</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>33402.24755887037</v>
+        <v>33402</v>
       </c>
       <c r="C13">
-        <v>55469.1118032987</v>
+        <v>55469</v>
       </c>
       <c r="D13">
-        <v>71653.07652741246</v>
+        <v>71653</v>
       </c>
       <c r="E13">
-        <v>77810.16062207165</v>
+        <v>77810</v>
       </c>
     </row>
   </sheetData>
